--- a/sample/外部設計書_画面設計（あいうえお）.xlsx
+++ b/sample/外部設計書_画面設計（あいうえお）.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
   <si>
     <t xml:space="preserve">外部設計書</t>
   </si>
@@ -1097,10 +1097,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BE57"/>
+  <dimension ref="A1:BE63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T13" activeCellId="0" sqref="T13"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK47" activeCellId="0" sqref="AK47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1769,6 +1769,1140 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12"/>
+      <c r="E41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="16"/>
+      <c r="AI41" s="16"/>
+      <c r="AJ41" s="16"/>
+      <c r="AK41" s="16"/>
+      <c r="AL41" s="16"/>
+      <c r="AM41" s="16"/>
+      <c r="AN41" s="16"/>
+      <c r="AO41" s="16"/>
+      <c r="AP41" s="16"/>
+      <c r="AQ41" s="17"/>
+      <c r="BD41" s="14"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12"/>
+      <c r="E42" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="19"/>
+      <c r="AJ42" s="19"/>
+      <c r="AK42" s="19"/>
+      <c r="AL42" s="19"/>
+      <c r="AM42" s="19"/>
+      <c r="AN42" s="19"/>
+      <c r="AO42" s="19"/>
+      <c r="AP42" s="19"/>
+      <c r="AQ42" s="20"/>
+      <c r="BD42" s="14"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12"/>
+      <c r="E43" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="19"/>
+      <c r="AJ43" s="19"/>
+      <c r="AK43" s="19"/>
+      <c r="AL43" s="19"/>
+      <c r="AM43" s="19"/>
+      <c r="AN43" s="19"/>
+      <c r="AO43" s="19"/>
+      <c r="AP43" s="19"/>
+      <c r="AQ43" s="20"/>
+      <c r="BD43" s="14"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="25"/>
+      <c r="AH44" s="25"/>
+      <c r="AI44" s="25"/>
+      <c r="AJ44" s="25"/>
+      <c r="AK44" s="25"/>
+      <c r="AL44" s="25"/>
+      <c r="AM44" s="25"/>
+      <c r="AN44" s="25"/>
+      <c r="AO44" s="25"/>
+      <c r="AP44" s="25"/>
+      <c r="AQ44" s="26"/>
+      <c r="AR44" s="22"/>
+      <c r="AS44" s="22"/>
+      <c r="AT44" s="22"/>
+      <c r="AU44" s="22"/>
+      <c r="AV44" s="22"/>
+      <c r="AW44" s="22"/>
+      <c r="AX44" s="22"/>
+      <c r="AY44" s="22"/>
+      <c r="AZ44" s="22"/>
+      <c r="BA44" s="22"/>
+      <c r="BB44" s="22"/>
+      <c r="BC44" s="22"/>
+      <c r="BD44" s="27"/>
+      <c r="BE44" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12"/>
+      <c r="E45" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="19"/>
+      <c r="AG45" s="19"/>
+      <c r="AH45" s="19"/>
+      <c r="AI45" s="19"/>
+      <c r="AJ45" s="19"/>
+      <c r="AK45" s="19"/>
+      <c r="AL45" s="19"/>
+      <c r="AM45" s="19"/>
+      <c r="AN45" s="19"/>
+      <c r="AO45" s="19"/>
+      <c r="AP45" s="19"/>
+      <c r="AQ45" s="20"/>
+      <c r="BD45" s="14"/>
+      <c r="BE45" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12"/>
+      <c r="BD46" s="14"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12"/>
+      <c r="E47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD47" s="14"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12"/>
+      <c r="BD48" s="14"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12"/>
+      <c r="C49" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BD49" s="14"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12"/>
+      <c r="D50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD50" s="14"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12"/>
+      <c r="BD51" s="14"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12"/>
+      <c r="D52" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD52" s="14"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12"/>
+      <c r="BD53" s="14"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12"/>
+      <c r="E54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD54" s="14"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12"/>
+      <c r="BD55" s="14"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12"/>
+      <c r="E56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD56" s="14"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12"/>
+      <c r="BD57" s="14"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12"/>
+      <c r="D58" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD58" s="14"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12"/>
+      <c r="BD59" s="14"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12"/>
+      <c r="E60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD60" s="14"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="12"/>
+      <c r="BD61" s="14"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="12"/>
+      <c r="BD62" s="14"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="30"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="31"/>
+      <c r="V63" s="31"/>
+      <c r="W63" s="31"/>
+      <c r="X63" s="31"/>
+      <c r="Y63" s="31"/>
+      <c r="Z63" s="31"/>
+      <c r="AA63" s="31"/>
+      <c r="AB63" s="31"/>
+      <c r="AC63" s="31"/>
+      <c r="AD63" s="31"/>
+      <c r="AE63" s="31"/>
+      <c r="AF63" s="31"/>
+      <c r="AG63" s="31"/>
+      <c r="AH63" s="31"/>
+      <c r="AI63" s="31"/>
+      <c r="AJ63" s="31"/>
+      <c r="AK63" s="31"/>
+      <c r="AL63" s="31"/>
+      <c r="AM63" s="31"/>
+      <c r="AN63" s="31"/>
+      <c r="AO63" s="31"/>
+      <c r="AP63" s="31"/>
+      <c r="AQ63" s="31"/>
+      <c r="AR63" s="31"/>
+      <c r="AS63" s="31"/>
+      <c r="AT63" s="31"/>
+      <c r="AU63" s="31"/>
+      <c r="AV63" s="31"/>
+      <c r="AW63" s="31"/>
+      <c r="AX63" s="31"/>
+      <c r="AY63" s="31"/>
+      <c r="AZ63" s="31"/>
+      <c r="BA63" s="31"/>
+      <c r="BB63" s="31"/>
+      <c r="BC63" s="31"/>
+      <c r="BD63" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A2:AE2"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AV2"/>
+    <mergeCell ref="A3:AE4"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="AQ3:AV3"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AM4:AP4"/>
+    <mergeCell ref="AQ4:AV4"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:O18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:O19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:O21"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:O41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:O43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:O44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:O45"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BE57"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="110" min="1" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="172" min="111" style="1" width="3.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="5" t="n">
+        <v>45292</v>
+      </c>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="5" t="n">
+        <v>45413</v>
+      </c>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12"/>
+      <c r="BD8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12"/>
+      <c r="C9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
+      <c r="BD10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12"/>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12"/>
+      <c r="BD12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12"/>
+      <c r="C13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12"/>
+      <c r="BD14" s="14"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12"/>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12"/>
+      <c r="BD16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12"/>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="17"/>
+      <c r="BD17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12"/>
+      <c r="E18" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="20"/>
+      <c r="BD18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12"/>
+      <c r="E19" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="20"/>
+      <c r="BD19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="22"/>
+      <c r="AV20" s="22"/>
+      <c r="AW20" s="22"/>
+      <c r="AX20" s="22"/>
+      <c r="AY20" s="22"/>
+      <c r="AZ20" s="22"/>
+      <c r="BA20" s="22"/>
+      <c r="BB20" s="22"/>
+      <c r="BC20" s="22"/>
+      <c r="BD20" s="27"/>
+      <c r="BE20" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12"/>
+      <c r="E21" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="20"/>
+      <c r="BD21" s="14"/>
+      <c r="BE21" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12"/>
+      <c r="BD22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12"/>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD23" s="14"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12"/>
+      <c r="BD24" s="14"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12"/>
+      <c r="BD25" s="14"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD26" s="14"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12"/>
+      <c r="BD27" s="14"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12"/>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD28" s="14"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12"/>
+      <c r="BD29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12"/>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD30" s="14"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12"/>
+      <c r="BD31" s="14"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD32" s="14"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12"/>
+      <c r="BD33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12"/>
+      <c r="C34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD34" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12"/>
+      <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD35" s="14"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12"/>
+      <c r="BD36" s="14"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12"/>
+      <c r="D37" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD37" s="14"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12"/>
+      <c r="BD38" s="14"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12"/>
+      <c r="E39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD39" s="14"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12"/>
+      <c r="BD40" s="14"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12"/>
       <c r="E41" s="1" t="s">
         <v>36</v>
       </c>
@@ -1799,7 +2933,7 @@
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12"/>
       <c r="D46" s="29" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="BD46" s="14"/>
     </row>
@@ -1810,7 +2944,7 @@
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12"/>
       <c r="E48" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="BD48" s="14"/>
     </row>
@@ -1939,861 +3073,6 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:BE57"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="110" min="1" style="1" width="2.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="172" min="111" style="1" width="3.2"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="5" t="n">
-        <v>45292</v>
-      </c>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="5" t="n">
-        <v>45413</v>
-      </c>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="10"/>
-      <c r="BC6" s="10"/>
-      <c r="BD6" s="11"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="BD7" s="14"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="BD8" s="14"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="C9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD9" s="14"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="BD10" s="14"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="D11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD11" s="14"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="BD12" s="14"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="C13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="BD13" s="14"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="BD14" s="14"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BD15" s="14"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="BD16" s="14"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="16"/>
-      <c r="AP17" s="16"/>
-      <c r="AQ17" s="17"/>
-      <c r="BD17" s="14"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-      <c r="E18" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="20"/>
-      <c r="BD18" s="14"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
-      <c r="E19" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="20"/>
-      <c r="BD19" s="14"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="25"/>
-      <c r="AL20" s="25"/>
-      <c r="AM20" s="25"/>
-      <c r="AN20" s="25"/>
-      <c r="AO20" s="25"/>
-      <c r="AP20" s="25"/>
-      <c r="AQ20" s="26"/>
-      <c r="AR20" s="22"/>
-      <c r="AS20" s="22"/>
-      <c r="AT20" s="22"/>
-      <c r="AU20" s="22"/>
-      <c r="AV20" s="22"/>
-      <c r="AW20" s="22"/>
-      <c r="AX20" s="22"/>
-      <c r="AY20" s="22"/>
-      <c r="AZ20" s="22"/>
-      <c r="BA20" s="22"/>
-      <c r="BB20" s="22"/>
-      <c r="BC20" s="22"/>
-      <c r="BD20" s="27"/>
-      <c r="BE20" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-      <c r="E21" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="19"/>
-      <c r="AN21" s="19"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="19"/>
-      <c r="AQ21" s="20"/>
-      <c r="BD21" s="14"/>
-      <c r="BE21" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
-      <c r="BD22" s="14"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="D23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD23" s="14"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="BD24" s="14"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="BD25" s="14"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD26" s="14"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="BD27" s="14"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="C28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD28" s="14"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="BD29" s="14"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="C30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD30" s="14"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-      <c r="BD31" s="14"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD32" s="14"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-      <c r="BD33" s="14"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
-      <c r="C34" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD34" s="14"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
-      <c r="D35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD35" s="14"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
-      <c r="BD36" s="14"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
-      <c r="D37" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD37" s="14"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
-      <c r="BD38" s="14"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
-      <c r="E39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD39" s="14"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
-      <c r="BD40" s="14"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
-      <c r="E41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD41" s="14"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
-      <c r="BD42" s="14"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
-      <c r="C43" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD43" s="14"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12"/>
-      <c r="D44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD44" s="14"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12"/>
-      <c r="BD45" s="14"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12"/>
-      <c r="D46" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD46" s="14"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12"/>
-      <c r="BD47" s="14"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12"/>
-      <c r="E48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD48" s="14"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12"/>
-      <c r="BD49" s="14"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12"/>
-      <c r="E50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD50" s="14"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12"/>
-      <c r="BD51" s="14"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12"/>
-      <c r="D52" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD52" s="14"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12"/>
-      <c r="BD53" s="14"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12"/>
-      <c r="E54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD54" s="14"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12"/>
-      <c r="BD55" s="14"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12"/>
-      <c r="BD56" s="14"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="30"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
-      <c r="W57" s="31"/>
-      <c r="X57" s="31"/>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31"/>
-      <c r="AA57" s="31"/>
-      <c r="AB57" s="31"/>
-      <c r="AC57" s="31"/>
-      <c r="AD57" s="31"/>
-      <c r="AE57" s="31"/>
-      <c r="AF57" s="31"/>
-      <c r="AG57" s="31"/>
-      <c r="AH57" s="31"/>
-      <c r="AI57" s="31"/>
-      <c r="AJ57" s="31"/>
-      <c r="AK57" s="31"/>
-      <c r="AL57" s="31"/>
-      <c r="AM57" s="31"/>
-      <c r="AN57" s="31"/>
-      <c r="AO57" s="31"/>
-      <c r="AP57" s="31"/>
-      <c r="AQ57" s="31"/>
-      <c r="AR57" s="31"/>
-      <c r="AS57" s="31"/>
-      <c r="AT57" s="31"/>
-      <c r="AU57" s="31"/>
-      <c r="AV57" s="31"/>
-      <c r="AW57" s="31"/>
-      <c r="AX57" s="31"/>
-      <c r="AY57" s="31"/>
-      <c r="AZ57" s="31"/>
-      <c r="BA57" s="31"/>
-      <c r="BB57" s="31"/>
-      <c r="BC57" s="31"/>
-      <c r="BD57" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A2:AE2"/>
-    <mergeCell ref="AF2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AV2"/>
-    <mergeCell ref="A3:AE4"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="AM3:AP3"/>
-    <mergeCell ref="AQ3:AV3"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AM4:AP4"/>
-    <mergeCell ref="AQ4:AV4"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:O17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:O18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:O19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:O20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:O21"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>

--- a/sample/外部設計書_画面設計（あいうえお）.xlsx
+++ b/sample/外部設計書_画面設計（あいうえお）.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t xml:space="preserve">外部設計書</t>
   </si>
@@ -458,10 +458,10 @@
     <t xml:space="preserve">・チェックを実施する。</t>
   </si>
   <si>
-    <t xml:space="preserve">あいうえお</t>
+    <t xml:space="preserve">あああああ</t>
   </si>
   <si>
-    <t xml:space="preserve">あああああ</t>
+    <t xml:space="preserve">あいうえお</t>
   </si>
   <si>
     <t xml:space="preserve">いいいいい</t>
@@ -902,7 +902,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1036,6 +1036,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5196,10 +5204,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BE57"/>
+  <dimension ref="A1:BE58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5553,8 +5561,9 @@
         <v>1</v>
       </c>
       <c r="F18" s="19"/>
-      <c r="G18" s="8" t="s">
-        <v>45</v>
+      <c r="G18" s="8" t="str">
+        <f aca="false">"あ"&amp;"いうえお"</f>
+        <v>あいうえお</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -5565,7 +5574,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
@@ -5603,7 +5612,7 @@
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -5799,155 +5808,218 @@
         <v>24</v>
       </c>
       <c r="BD28" s="15"/>
+      <c r="BE28" s="29" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-      <c r="BD29" s="15"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="34"/>
+      <c r="AN29" s="34"/>
+      <c r="AO29" s="34"/>
+      <c r="AP29" s="34"/>
+      <c r="AQ29" s="34"/>
+      <c r="AR29" s="34"/>
+      <c r="AS29" s="34"/>
+      <c r="AT29" s="34"/>
+      <c r="AU29" s="34"/>
+      <c r="AV29" s="34"/>
+      <c r="AW29" s="34"/>
+      <c r="AX29" s="34"/>
+      <c r="AY29" s="34"/>
+      <c r="AZ29" s="34"/>
+      <c r="BA29" s="34"/>
+      <c r="BB29" s="34"/>
+      <c r="BC29" s="34"/>
+      <c r="BD29" s="28"/>
+      <c r="BE29" s="29" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13"/>
-      <c r="C30" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="BD30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13"/>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="BD31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
-        <v>26</v>
-      </c>
       <c r="BD32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13"/>
+      <c r="B33" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="BD33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
-      <c r="C34" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="BD34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13"/>
-      <c r="D35" s="2" t="s">
-        <v>28</v>
+      <c r="C35" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="BD35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13"/>
+      <c r="D36" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="BD36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13"/>
-      <c r="D37" s="30" t="s">
-        <v>53</v>
-      </c>
       <c r="BD37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13"/>
+      <c r="D38" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="BD38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13"/>
-      <c r="E39" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="BD39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="E40" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="BD40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13"/>
-      <c r="E41" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="BD41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13"/>
+      <c r="E42" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BD42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13"/>
-      <c r="C43" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="BD43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13"/>
-      <c r="D44" s="2" t="s">
-        <v>28</v>
+      <c r="C44" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="BD44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13"/>
+      <c r="D45" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="BD45" s="15"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13"/>
-      <c r="D46" s="30" t="s">
-        <v>57</v>
-      </c>
       <c r="BD46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13"/>
+      <c r="D47" s="30" t="s">
+        <v>57</v>
+      </c>
       <c r="BD47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13"/>
-      <c r="E48" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="BD48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13"/>
+      <c r="E49" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="BD49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13"/>
-      <c r="E50" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="BD50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13"/>
+      <c r="E51" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="BD51" s="15"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13"/>
-      <c r="D52" s="30" t="s">
-        <v>60</v>
-      </c>
       <c r="BD52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13"/>
+      <c r="D53" s="30" t="s">
+        <v>60</v>
+      </c>
       <c r="BD53" s="15"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13"/>
-      <c r="E54" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="BD54" s="15"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="13"/>
+      <c r="E55" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="BD55" s="15"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5955,62 +6027,66 @@
       <c r="BD56" s="15"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="32"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
-      <c r="W57" s="31"/>
-      <c r="X57" s="31"/>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31"/>
-      <c r="AA57" s="31"/>
-      <c r="AB57" s="31"/>
-      <c r="AC57" s="31"/>
-      <c r="AD57" s="31"/>
-      <c r="AE57" s="31"/>
-      <c r="AF57" s="31"/>
-      <c r="AG57" s="31"/>
-      <c r="AH57" s="31"/>
-      <c r="AI57" s="31"/>
-      <c r="AJ57" s="31"/>
-      <c r="AK57" s="31"/>
-      <c r="AL57" s="31"/>
-      <c r="AM57" s="31"/>
-      <c r="AN57" s="31"/>
-      <c r="AO57" s="31"/>
-      <c r="AP57" s="31"/>
-      <c r="AQ57" s="31"/>
-      <c r="AR57" s="31"/>
-      <c r="AS57" s="31"/>
-      <c r="AT57" s="31"/>
-      <c r="AU57" s="31"/>
-      <c r="AV57" s="31"/>
-      <c r="AW57" s="31"/>
-      <c r="AX57" s="31"/>
-      <c r="AY57" s="31"/>
-      <c r="AZ57" s="31"/>
-      <c r="BA57" s="31"/>
-      <c r="BB57" s="31"/>
-      <c r="BC57" s="31"/>
-      <c r="BD57" s="33"/>
+      <c r="A57" s="13"/>
+      <c r="BD57" s="15"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="32"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="31"/>
+      <c r="V58" s="31"/>
+      <c r="W58" s="31"/>
+      <c r="X58" s="31"/>
+      <c r="Y58" s="31"/>
+      <c r="Z58" s="31"/>
+      <c r="AA58" s="31"/>
+      <c r="AB58" s="31"/>
+      <c r="AC58" s="31"/>
+      <c r="AD58" s="31"/>
+      <c r="AE58" s="31"/>
+      <c r="AF58" s="31"/>
+      <c r="AG58" s="31"/>
+      <c r="AH58" s="31"/>
+      <c r="AI58" s="31"/>
+      <c r="AJ58" s="31"/>
+      <c r="AK58" s="31"/>
+      <c r="AL58" s="31"/>
+      <c r="AM58" s="31"/>
+      <c r="AN58" s="31"/>
+      <c r="AO58" s="31"/>
+      <c r="AP58" s="31"/>
+      <c r="AQ58" s="31"/>
+      <c r="AR58" s="31"/>
+      <c r="AS58" s="31"/>
+      <c r="AT58" s="31"/>
+      <c r="AU58" s="31"/>
+      <c r="AV58" s="31"/>
+      <c r="AW58" s="31"/>
+      <c r="AX58" s="31"/>
+      <c r="AY58" s="31"/>
+      <c r="AZ58" s="31"/>
+      <c r="BA58" s="31"/>
+      <c r="BB58" s="31"/>
+      <c r="BC58" s="31"/>
+      <c r="BD58" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="21">

--- a/sample/外部設計書_画面設計（あいうえお）.xlsx
+++ b/sample/外部設計書_画面設計（あいうえお）.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="イベント詳細_初期表示" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="イベント詳細_ボタン押下" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="イベント詳細_テーブル改行" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="64">
   <si>
     <t xml:space="preserve">外部設計書</t>
   </si>
@@ -680,6 +681,12 @@
   <si>
     <t xml:space="preserve">注文</t>
   </si>
+  <si>
+    <t xml:space="preserve">注文番号
+ああああ
+ああああ
+いいい</t>
+  </si>
 </sst>
 </file>
 
@@ -950,7 +957,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1101,6 +1108,22 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1288,7 +1311,7 @@
   </sheetPr>
   <dimension ref="A1:BE58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2211,8 +2234,8 @@
   </sheetPr>
   <dimension ref="A1:FP65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ44" activeCellId="0" sqref="AJ44"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6188,8 +6211,8 @@
   </sheetPr>
   <dimension ref="A1:BE58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AY27" activeCellId="0" sqref="AY27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7102,4 +7125,1617 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:FP65"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="110" min="1" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="172" min="111" style="1" width="3.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="5" t="n">
+        <v>45292</v>
+      </c>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="5" t="n">
+        <v>45413</v>
+      </c>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12"/>
+      <c r="BD8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12"/>
+      <c r="C9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
+      <c r="BD10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12"/>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12"/>
+      <c r="BD12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12"/>
+      <c r="C13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12"/>
+      <c r="BD14" s="14"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12"/>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12"/>
+      <c r="BD16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12"/>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="17"/>
+      <c r="BD17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12"/>
+      <c r="E18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39" t="str">
+        <f aca="false">"あ"&amp;"いうえお"</f>
+        <v>あいうえお</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="40"/>
+      <c r="AJ18" s="40"/>
+      <c r="AK18" s="40"/>
+      <c r="AL18" s="40"/>
+      <c r="AM18" s="40"/>
+      <c r="AN18" s="40"/>
+      <c r="AO18" s="40"/>
+      <c r="AP18" s="40"/>
+      <c r="AQ18" s="40"/>
+      <c r="BD18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40"/>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="40"/>
+      <c r="AN19" s="40"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="BD19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39" t="str">
+        <f aca="false">"あ"&amp;"いうえお"</f>
+        <v>あいうえお</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="20"/>
+      <c r="BD20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="20"/>
+      <c r="BD21" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12"/>
+      <c r="E22" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="20"/>
+      <c r="BD22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="22"/>
+      <c r="AS23" s="22"/>
+      <c r="AT23" s="22"/>
+      <c r="AU23" s="22"/>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="22"/>
+      <c r="AX23" s="22"/>
+      <c r="AY23" s="22"/>
+      <c r="AZ23" s="22"/>
+      <c r="BA23" s="22"/>
+      <c r="BB23" s="22"/>
+      <c r="BC23" s="22"/>
+      <c r="BD23" s="27"/>
+      <c r="BE23" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12"/>
+      <c r="E24" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="20"/>
+      <c r="BD24" s="14"/>
+      <c r="BE24" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12"/>
+      <c r="BD25" s="14"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12"/>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD26" s="14"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12"/>
+      <c r="BD27" s="14"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12"/>
+      <c r="BD28" s="14"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12"/>
+      <c r="BD30" s="14"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12"/>
+      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD31" s="14"/>
+      <c r="BE31" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29"/>
+      <c r="AI32" s="29"/>
+      <c r="AJ32" s="29"/>
+      <c r="AK32" s="29"/>
+      <c r="AL32" s="29"/>
+      <c r="AM32" s="29"/>
+      <c r="AN32" s="29"/>
+      <c r="AO32" s="29"/>
+      <c r="AP32" s="29"/>
+      <c r="AQ32" s="29"/>
+      <c r="AR32" s="29"/>
+      <c r="AS32" s="29"/>
+      <c r="AT32" s="29"/>
+      <c r="AU32" s="29"/>
+      <c r="AV32" s="29"/>
+      <c r="AW32" s="29"/>
+      <c r="AX32" s="29"/>
+      <c r="AY32" s="29"/>
+      <c r="AZ32" s="29"/>
+      <c r="BA32" s="29"/>
+      <c r="BB32" s="29"/>
+      <c r="BC32" s="29"/>
+      <c r="BD32" s="27"/>
+      <c r="BE32" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12"/>
+      <c r="BD33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12"/>
+      <c r="C34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD34" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12"/>
+      <c r="BD35" s="14"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD36" s="14"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12"/>
+      <c r="BD37" s="14"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12"/>
+      <c r="C38" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD38" s="14"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12"/>
+      <c r="D39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD39" s="14"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12"/>
+      <c r="BD40" s="14"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12"/>
+      <c r="D41" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD41" s="14"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12"/>
+      <c r="BD42" s="14"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="E43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD43" s="14"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="BD44" s="14"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="16"/>
+      <c r="AF45" s="16"/>
+      <c r="AG45" s="16"/>
+      <c r="AH45" s="16"/>
+      <c r="AI45" s="16"/>
+      <c r="AJ45" s="16"/>
+      <c r="AK45" s="16"/>
+      <c r="AL45" s="16"/>
+      <c r="AM45" s="16"/>
+      <c r="AN45" s="16"/>
+      <c r="AO45" s="16"/>
+      <c r="AP45" s="16"/>
+      <c r="AQ45" s="17"/>
+      <c r="AR45" s="35"/>
+      <c r="AS45" s="35"/>
+      <c r="AT45" s="35"/>
+      <c r="AU45" s="35"/>
+      <c r="AV45" s="35"/>
+      <c r="AW45" s="35"/>
+      <c r="AX45" s="35"/>
+      <c r="AY45" s="35"/>
+      <c r="AZ45" s="35"/>
+      <c r="BA45" s="35"/>
+      <c r="BB45" s="35"/>
+      <c r="BC45" s="35"/>
+      <c r="BD45" s="14"/>
+      <c r="BE45" s="35"/>
+      <c r="BF45" s="35"/>
+      <c r="BG45" s="35"/>
+      <c r="BH45" s="35"/>
+      <c r="BI45" s="35"/>
+      <c r="BJ45" s="35"/>
+      <c r="BK45" s="35"/>
+      <c r="BL45" s="35"/>
+      <c r="BM45" s="35"/>
+      <c r="BN45" s="35"/>
+      <c r="BO45" s="35"/>
+      <c r="BP45" s="35"/>
+      <c r="BQ45" s="35"/>
+      <c r="BR45" s="35"/>
+      <c r="BS45" s="35"/>
+      <c r="BT45" s="35"/>
+      <c r="BU45" s="35"/>
+      <c r="BV45" s="35"/>
+      <c r="BW45" s="35"/>
+      <c r="BX45" s="35"/>
+      <c r="BY45" s="35"/>
+      <c r="BZ45" s="35"/>
+      <c r="CA45" s="35"/>
+      <c r="CB45" s="35"/>
+      <c r="CC45" s="35"/>
+      <c r="CD45" s="35"/>
+      <c r="CE45" s="35"/>
+      <c r="CF45" s="35"/>
+      <c r="CG45" s="35"/>
+      <c r="CH45" s="35"/>
+      <c r="CI45" s="35"/>
+      <c r="CJ45" s="35"/>
+      <c r="CK45" s="35"/>
+      <c r="CL45" s="35"/>
+      <c r="CM45" s="35"/>
+      <c r="CN45" s="35"/>
+      <c r="CO45" s="35"/>
+      <c r="CP45" s="35"/>
+      <c r="CQ45" s="35"/>
+      <c r="CR45" s="35"/>
+      <c r="CS45" s="35"/>
+      <c r="CT45" s="35"/>
+      <c r="CU45" s="35"/>
+      <c r="CV45" s="35"/>
+      <c r="CW45" s="35"/>
+      <c r="CX45" s="35"/>
+      <c r="CY45" s="35"/>
+      <c r="CZ45" s="35"/>
+      <c r="DA45" s="35"/>
+      <c r="DB45" s="35"/>
+      <c r="DC45" s="35"/>
+      <c r="DD45" s="35"/>
+      <c r="DE45" s="35"/>
+      <c r="DF45" s="35"/>
+      <c r="DG45" s="35"/>
+      <c r="DH45" s="35"/>
+      <c r="DI45" s="35"/>
+      <c r="DJ45" s="35"/>
+      <c r="DK45" s="35"/>
+      <c r="DL45" s="35"/>
+      <c r="DM45" s="35"/>
+      <c r="DN45" s="35"/>
+      <c r="DO45" s="35"/>
+      <c r="DP45" s="35"/>
+      <c r="DQ45" s="35"/>
+      <c r="DR45" s="35"/>
+      <c r="DS45" s="35"/>
+      <c r="DT45" s="35"/>
+      <c r="DU45" s="35"/>
+      <c r="DV45" s="35"/>
+      <c r="DW45" s="35"/>
+      <c r="DX45" s="35"/>
+      <c r="DY45" s="35"/>
+      <c r="DZ45" s="35"/>
+      <c r="EA45" s="35"/>
+      <c r="EB45" s="35"/>
+      <c r="EC45" s="35"/>
+      <c r="ED45" s="35"/>
+      <c r="EE45" s="35"/>
+      <c r="EF45" s="35"/>
+      <c r="EG45" s="35"/>
+      <c r="EH45" s="35"/>
+      <c r="EI45" s="35"/>
+      <c r="EJ45" s="35"/>
+      <c r="EK45" s="35"/>
+      <c r="EL45" s="35"/>
+      <c r="EM45" s="35"/>
+      <c r="EN45" s="35"/>
+      <c r="EO45" s="35"/>
+      <c r="EP45" s="35"/>
+      <c r="EQ45" s="35"/>
+      <c r="ER45" s="35"/>
+      <c r="ES45" s="35"/>
+      <c r="ET45" s="35"/>
+      <c r="EU45" s="35"/>
+      <c r="EV45" s="35"/>
+      <c r="EW45" s="35"/>
+      <c r="EX45" s="35"/>
+      <c r="EY45" s="35"/>
+      <c r="EZ45" s="35"/>
+      <c r="FA45" s="35"/>
+      <c r="FB45" s="35"/>
+      <c r="FC45" s="35"/>
+      <c r="FD45" s="35"/>
+      <c r="FE45" s="35"/>
+      <c r="FF45" s="35"/>
+      <c r="FG45" s="35"/>
+      <c r="FH45" s="35"/>
+      <c r="FI45" s="35"/>
+      <c r="FJ45" s="35"/>
+      <c r="FK45" s="35"/>
+      <c r="FL45" s="35"/>
+      <c r="FM45" s="35"/>
+      <c r="FN45" s="35"/>
+      <c r="FO45" s="35"/>
+      <c r="FP45" s="35"/>
+    </row>
+    <row r="46" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="G46" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="41"/>
+      <c r="AB46" s="41"/>
+      <c r="AC46" s="41"/>
+      <c r="AD46" s="41"/>
+      <c r="AE46" s="41"/>
+      <c r="AF46" s="41"/>
+      <c r="AG46" s="41"/>
+      <c r="AH46" s="41"/>
+      <c r="AI46" s="41"/>
+      <c r="AJ46" s="41"/>
+      <c r="AK46" s="41"/>
+      <c r="AL46" s="41"/>
+      <c r="AM46" s="41"/>
+      <c r="AN46" s="41"/>
+      <c r="AO46" s="41"/>
+      <c r="AP46" s="41"/>
+      <c r="AQ46" s="41"/>
+      <c r="AR46" s="35"/>
+      <c r="AS46" s="35"/>
+      <c r="AT46" s="35"/>
+      <c r="AU46" s="35"/>
+      <c r="AV46" s="35"/>
+      <c r="AW46" s="35"/>
+      <c r="AX46" s="35"/>
+      <c r="AY46" s="35"/>
+      <c r="AZ46" s="35"/>
+      <c r="BA46" s="35"/>
+      <c r="BB46" s="35"/>
+      <c r="BC46" s="35"/>
+      <c r="BD46" s="14"/>
+      <c r="BE46" s="35"/>
+      <c r="BF46" s="35"/>
+      <c r="BG46" s="35"/>
+      <c r="BH46" s="35"/>
+      <c r="BI46" s="35"/>
+      <c r="BJ46" s="35"/>
+      <c r="BK46" s="35"/>
+      <c r="BL46" s="35"/>
+      <c r="BM46" s="35"/>
+      <c r="BN46" s="35"/>
+      <c r="BO46" s="35"/>
+      <c r="BP46" s="35"/>
+      <c r="BQ46" s="35"/>
+      <c r="BR46" s="35"/>
+      <c r="BS46" s="35"/>
+      <c r="BT46" s="35"/>
+      <c r="BU46" s="35"/>
+      <c r="BV46" s="35"/>
+      <c r="BW46" s="35"/>
+      <c r="BX46" s="35"/>
+      <c r="BY46" s="35"/>
+      <c r="BZ46" s="35"/>
+      <c r="CA46" s="35"/>
+      <c r="CB46" s="35"/>
+      <c r="CC46" s="35"/>
+      <c r="CD46" s="35"/>
+      <c r="CE46" s="35"/>
+      <c r="CF46" s="35"/>
+      <c r="CG46" s="35"/>
+      <c r="CH46" s="35"/>
+      <c r="CI46" s="35"/>
+      <c r="CJ46" s="35"/>
+      <c r="CK46" s="35"/>
+      <c r="CL46" s="35"/>
+      <c r="CM46" s="35"/>
+      <c r="CN46" s="35"/>
+      <c r="CO46" s="35"/>
+      <c r="CP46" s="35"/>
+      <c r="CQ46" s="35"/>
+      <c r="CR46" s="35"/>
+      <c r="CS46" s="35"/>
+      <c r="CT46" s="35"/>
+      <c r="CU46" s="35"/>
+      <c r="CV46" s="35"/>
+      <c r="CW46" s="35"/>
+      <c r="CX46" s="35"/>
+      <c r="CY46" s="35"/>
+      <c r="CZ46" s="35"/>
+      <c r="DA46" s="35"/>
+      <c r="DB46" s="35"/>
+      <c r="DC46" s="35"/>
+      <c r="DD46" s="35"/>
+      <c r="DE46" s="35"/>
+      <c r="DF46" s="35"/>
+      <c r="DG46" s="35"/>
+      <c r="DH46" s="35"/>
+      <c r="DI46" s="35"/>
+      <c r="DJ46" s="35"/>
+      <c r="DK46" s="35"/>
+      <c r="DL46" s="35"/>
+      <c r="DM46" s="35"/>
+      <c r="DN46" s="35"/>
+      <c r="DO46" s="35"/>
+      <c r="DP46" s="35"/>
+      <c r="DQ46" s="35"/>
+      <c r="DR46" s="35"/>
+      <c r="DS46" s="35"/>
+      <c r="DT46" s="35"/>
+      <c r="DU46" s="35"/>
+      <c r="DV46" s="35"/>
+      <c r="DW46" s="35"/>
+      <c r="DX46" s="35"/>
+      <c r="DY46" s="35"/>
+      <c r="DZ46" s="35"/>
+      <c r="EA46" s="35"/>
+      <c r="EB46" s="35"/>
+      <c r="EC46" s="35"/>
+      <c r="ED46" s="35"/>
+      <c r="EE46" s="35"/>
+      <c r="EF46" s="35"/>
+      <c r="EG46" s="35"/>
+      <c r="EH46" s="35"/>
+      <c r="EI46" s="35"/>
+      <c r="EJ46" s="35"/>
+      <c r="EK46" s="35"/>
+      <c r="EL46" s="35"/>
+      <c r="EM46" s="35"/>
+      <c r="EN46" s="35"/>
+      <c r="EO46" s="35"/>
+      <c r="EP46" s="35"/>
+      <c r="EQ46" s="35"/>
+      <c r="ER46" s="35"/>
+      <c r="ES46" s="35"/>
+      <c r="ET46" s="35"/>
+      <c r="EU46" s="35"/>
+      <c r="EV46" s="35"/>
+      <c r="EW46" s="35"/>
+      <c r="EX46" s="35"/>
+      <c r="EY46" s="35"/>
+      <c r="EZ46" s="35"/>
+      <c r="FA46" s="35"/>
+      <c r="FB46" s="35"/>
+      <c r="FC46" s="35"/>
+      <c r="FD46" s="35"/>
+      <c r="FE46" s="35"/>
+      <c r="FF46" s="35"/>
+      <c r="FG46" s="35"/>
+      <c r="FH46" s="35"/>
+      <c r="FI46" s="35"/>
+      <c r="FJ46" s="35"/>
+      <c r="FK46" s="35"/>
+      <c r="FL46" s="35"/>
+      <c r="FM46" s="35"/>
+      <c r="FN46" s="35"/>
+      <c r="FO46" s="35"/>
+      <c r="FP46" s="35"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="33"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19"/>
+      <c r="AI47" s="19"/>
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="19"/>
+      <c r="AL47" s="19"/>
+      <c r="AM47" s="19"/>
+      <c r="AN47" s="19"/>
+      <c r="AO47" s="19"/>
+      <c r="AP47" s="19"/>
+      <c r="AQ47" s="20"/>
+      <c r="AR47" s="35"/>
+      <c r="AS47" s="35"/>
+      <c r="AT47" s="35"/>
+      <c r="AU47" s="35"/>
+      <c r="AV47" s="35"/>
+      <c r="AW47" s="35"/>
+      <c r="AX47" s="35"/>
+      <c r="AY47" s="35"/>
+      <c r="AZ47" s="35"/>
+      <c r="BA47" s="35"/>
+      <c r="BB47" s="35"/>
+      <c r="BC47" s="35"/>
+      <c r="BD47" s="14"/>
+      <c r="BE47" s="35"/>
+      <c r="BF47" s="35"/>
+      <c r="BG47" s="35"/>
+      <c r="BH47" s="35"/>
+      <c r="BI47" s="35"/>
+      <c r="BJ47" s="35"/>
+      <c r="BK47" s="35"/>
+      <c r="BL47" s="35"/>
+      <c r="BM47" s="35"/>
+      <c r="BN47" s="35"/>
+      <c r="BO47" s="35"/>
+      <c r="BP47" s="35"/>
+      <c r="BQ47" s="35"/>
+      <c r="BR47" s="35"/>
+      <c r="BS47" s="35"/>
+      <c r="BT47" s="35"/>
+      <c r="BU47" s="35"/>
+      <c r="BV47" s="35"/>
+      <c r="BW47" s="35"/>
+      <c r="BX47" s="35"/>
+      <c r="BY47" s="35"/>
+      <c r="BZ47" s="35"/>
+      <c r="CA47" s="35"/>
+      <c r="CB47" s="35"/>
+      <c r="CC47" s="35"/>
+      <c r="CD47" s="35"/>
+      <c r="CE47" s="35"/>
+      <c r="CF47" s="35"/>
+      <c r="CG47" s="35"/>
+      <c r="CH47" s="35"/>
+      <c r="CI47" s="35"/>
+      <c r="CJ47" s="35"/>
+      <c r="CK47" s="35"/>
+      <c r="CL47" s="35"/>
+      <c r="CM47" s="35"/>
+      <c r="CN47" s="35"/>
+      <c r="CO47" s="35"/>
+      <c r="CP47" s="35"/>
+      <c r="CQ47" s="35"/>
+      <c r="CR47" s="35"/>
+      <c r="CS47" s="35"/>
+      <c r="CT47" s="35"/>
+      <c r="CU47" s="35"/>
+      <c r="CV47" s="35"/>
+      <c r="CW47" s="35"/>
+      <c r="CX47" s="35"/>
+      <c r="CY47" s="35"/>
+      <c r="CZ47" s="35"/>
+      <c r="DA47" s="35"/>
+      <c r="DB47" s="35"/>
+      <c r="DC47" s="35"/>
+      <c r="DD47" s="35"/>
+      <c r="DE47" s="35"/>
+      <c r="DF47" s="35"/>
+      <c r="DG47" s="35"/>
+      <c r="DH47" s="35"/>
+      <c r="DI47" s="35"/>
+      <c r="DJ47" s="35"/>
+      <c r="DK47" s="35"/>
+      <c r="DL47" s="35"/>
+      <c r="DM47" s="35"/>
+      <c r="DN47" s="35"/>
+      <c r="DO47" s="35"/>
+      <c r="DP47" s="35"/>
+      <c r="DQ47" s="35"/>
+      <c r="DR47" s="35"/>
+      <c r="DS47" s="35"/>
+      <c r="DT47" s="35"/>
+      <c r="DU47" s="35"/>
+      <c r="DV47" s="35"/>
+      <c r="DW47" s="35"/>
+      <c r="DX47" s="35"/>
+      <c r="DY47" s="35"/>
+      <c r="DZ47" s="35"/>
+      <c r="EA47" s="35"/>
+      <c r="EB47" s="35"/>
+      <c r="EC47" s="35"/>
+      <c r="ED47" s="35"/>
+      <c r="EE47" s="35"/>
+      <c r="EF47" s="35"/>
+      <c r="EG47" s="35"/>
+      <c r="EH47" s="35"/>
+      <c r="EI47" s="35"/>
+      <c r="EJ47" s="35"/>
+      <c r="EK47" s="35"/>
+      <c r="EL47" s="35"/>
+      <c r="EM47" s="35"/>
+      <c r="EN47" s="35"/>
+      <c r="EO47" s="35"/>
+      <c r="EP47" s="35"/>
+      <c r="EQ47" s="35"/>
+      <c r="ER47" s="35"/>
+      <c r="ES47" s="35"/>
+      <c r="ET47" s="35"/>
+      <c r="EU47" s="35"/>
+      <c r="EV47" s="35"/>
+      <c r="EW47" s="35"/>
+      <c r="EX47" s="35"/>
+      <c r="EY47" s="35"/>
+      <c r="EZ47" s="35"/>
+      <c r="FA47" s="35"/>
+      <c r="FB47" s="35"/>
+      <c r="FC47" s="35"/>
+      <c r="FD47" s="35"/>
+      <c r="FE47" s="35"/>
+      <c r="FF47" s="35"/>
+      <c r="FG47" s="35"/>
+      <c r="FH47" s="35"/>
+      <c r="FI47" s="35"/>
+      <c r="FJ47" s="35"/>
+      <c r="FK47" s="35"/>
+      <c r="FL47" s="35"/>
+      <c r="FM47" s="35"/>
+      <c r="FN47" s="35"/>
+      <c r="FO47" s="35"/>
+      <c r="FP47" s="35"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12"/>
+      <c r="BD48" s="14"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12"/>
+      <c r="E49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD49" s="14"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12"/>
+      <c r="BD50" s="14"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12"/>
+      <c r="C51" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BD51" s="14"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12"/>
+      <c r="D52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD52" s="14"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12"/>
+      <c r="BD53" s="14"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12"/>
+      <c r="D54" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD54" s="14"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12"/>
+      <c r="BD55" s="14"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12"/>
+      <c r="E56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD56" s="14"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12"/>
+      <c r="BD57" s="14"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12"/>
+      <c r="E58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD58" s="14"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12"/>
+      <c r="BD59" s="14"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12"/>
+      <c r="D60" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD60" s="14"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="12"/>
+      <c r="BD61" s="14"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="12"/>
+      <c r="E62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD62" s="14"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="12"/>
+      <c r="BD63" s="14"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="12"/>
+      <c r="BD64" s="14"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="32"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="33"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="33"/>
+      <c r="AC65" s="33"/>
+      <c r="AD65" s="33"/>
+      <c r="AE65" s="33"/>
+      <c r="AF65" s="33"/>
+      <c r="AG65" s="33"/>
+      <c r="AH65" s="33"/>
+      <c r="AI65" s="33"/>
+      <c r="AJ65" s="33"/>
+      <c r="AK65" s="33"/>
+      <c r="AL65" s="33"/>
+      <c r="AM65" s="33"/>
+      <c r="AN65" s="33"/>
+      <c r="AO65" s="33"/>
+      <c r="AP65" s="33"/>
+      <c r="AQ65" s="33"/>
+      <c r="AR65" s="33"/>
+      <c r="AS65" s="33"/>
+      <c r="AT65" s="33"/>
+      <c r="AU65" s="33"/>
+      <c r="AV65" s="33"/>
+      <c r="AW65" s="33"/>
+      <c r="AX65" s="33"/>
+      <c r="AY65" s="33"/>
+      <c r="AZ65" s="33"/>
+      <c r="BA65" s="33"/>
+      <c r="BB65" s="33"/>
+      <c r="BC65" s="33"/>
+      <c r="BD65" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A2:AE2"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AV2"/>
+    <mergeCell ref="A3:AE4"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="AQ3:AV3"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AM4:AP4"/>
+    <mergeCell ref="AQ4:AV4"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="E18:F21"/>
+    <mergeCell ref="G18:O19"/>
+    <mergeCell ref="P18:AQ19"/>
+    <mergeCell ref="G20:O21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:O22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:O23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:O24"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:O45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:O46"/>
+    <mergeCell ref="P46:AQ46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:O47"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>